--- a/ITI/SVCM/StructureDefinition-IHE.SVCM.ValueSet.xlsx
+++ b/ITI/SVCM/StructureDefinition-IHE.SVCM.ValueSet.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-12T07:19:57-05:00</t>
+    <t>2022-10-21T14:30:40-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -258,10 +258,6 @@
     <t>A ValueSet resource instance specifies a set of codes drawn from one or more code systems, intended for use in a particular context. Value sets link between [CodeSystem](http://hl7.org/fhir/R4/codesystem.html) definitions and their use in [coded elements](http://hl7.org/fhir/R4/terminologies.html).</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}vsd-0:Name should be usable as an identifier for the module by machine processing applications such as code generation {name.matches('[A-Z]([A-Za-z0-9_]){0,254}')}</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -274,7 +270,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -498,6 +494,10 @@
   </si>
   <si>
     <t>ValueSet.version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Business version of the value set</t>
@@ -1964,10 +1964,10 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="AJ2" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>76</v>
@@ -1981,7 +1981,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1992,28 +1992,28 @@
         <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>89</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2063,13 +2063,13 @@
         <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>76</v>
@@ -2092,7 +2092,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2103,25 +2103,25 @@
         <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>93</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>94</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2172,19 +2172,19 @@
         <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>76</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2212,28 +2212,28 @@
         <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>101</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2283,19 +2283,19 @@
         <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>76</v>
@@ -2312,7 +2312,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2323,7 +2323,7 @@
         <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>76</v>
@@ -2335,16 +2335,16 @@
         <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>107</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2370,43 +2370,43 @@
         <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>76</v>
@@ -2423,18 +2423,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>76</v>
@@ -2446,16 +2446,16 @@
         <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>114</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2505,22 +2505,22 @@
         <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>119</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>76</v>
@@ -2534,11 +2534,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2557,16 +2557,16 @@
         <v>76</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2616,7 +2616,7 @@
         <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>77</v>
@@ -2631,7 +2631,7 @@
         <v>76</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>76</v>
@@ -2645,11 +2645,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2668,16 +2668,16 @@
         <v>76</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
@@ -2727,7 +2727,7 @@
         <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>77</v>
@@ -2739,10 +2739,10 @@
         <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>76</v>
@@ -2756,11 +2756,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2773,25 +2773,25 @@
         <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>76</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="M10" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N10" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="O10" t="s" s="2">
         <v>76</v>
@@ -2840,7 +2840,7 @@
         <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>77</v>
@@ -2852,10 +2852,10 @@
         <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>76</v>
@@ -2869,7 +2869,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2877,34 +2877,34 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H11" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I11" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>144</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>76</v>
@@ -2953,28 +2953,28 @@
         <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AL11" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AL11" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>76</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3002,22 +3002,22 @@
         <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>76</v>
@@ -3066,7 +3066,7 @@
         <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>77</v>
@@ -3078,24 +3078,24 @@
         <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AM12" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3106,19 +3106,19 @@
         <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I13" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H13" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I13" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J13" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>156</v>
@@ -3177,19 +3177,19 @@
         <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>76</v>
@@ -3217,19 +3217,19 @@
         <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H14" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I14" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H14" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I14" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J14" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>162</v>
@@ -3296,13 +3296,13 @@
         <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>166</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>76</v>
@@ -3330,19 +3330,19 @@
         <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I15" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>168</v>
@@ -3407,13 +3407,13 @@
         <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>76</v>
@@ -3438,22 +3438,22 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="I16" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J16" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>173</v>
@@ -3515,16 +3515,16 @@
         <v>172</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>76</v>
@@ -3552,16 +3552,16 @@
         <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I17" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H17" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I17" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>182</v>
@@ -3631,13 +3631,13 @@
         <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>76</v>
@@ -3665,16 +3665,16 @@
         <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I18" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H18" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>191</v>
@@ -3742,16 +3742,16 @@
         <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>195</v>
@@ -3776,19 +3776,19 @@
         <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>198</v>
@@ -3855,13 +3855,13 @@
         <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ19" t="s" s="2">
         <v>76</v>
@@ -3898,7 +3898,7 @@
         <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J20" t="s" s="2">
         <v>205</v>
@@ -3972,7 +3972,7 @@
         <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ20" t="s" s="2">
         <v>76</v>
@@ -4000,7 +4000,7 @@
         <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>76</v>
@@ -4077,16 +4077,16 @@
         <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>216</v>
@@ -4120,7 +4120,7 @@
         <v>76</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J22" t="s" s="2">
         <v>218</v>
@@ -4196,7 +4196,7 @@
         <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>76</v>
@@ -4233,7 +4233,7 @@
         <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>225</v>
@@ -4307,7 +4307,7 @@
         <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ23" t="s" s="2">
         <v>76</v>
@@ -4335,16 +4335,16 @@
         <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I24" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>182</v>
@@ -4412,13 +4412,13 @@
         <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>76</v>
@@ -4446,7 +4446,7 @@
         <v>77</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>76</v>
@@ -4523,13 +4523,13 @@
         <v>77</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>76</v>
@@ -4541,7 +4541,7 @@
         <v>242</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26">
@@ -4557,7 +4557,7 @@
         <v>77</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>76</v>
@@ -4636,13 +4636,13 @@
         <v>77</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>76</v>
@@ -4654,7 +4654,7 @@
         <v>76</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27">
@@ -4670,7 +4670,7 @@
         <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>76</v>
@@ -4745,13 +4745,13 @@
         <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>76</v>
@@ -4779,7 +4779,7 @@
         <v>77</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>76</v>
@@ -4791,7 +4791,7 @@
         <v>76</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>256</v>
@@ -4854,7 +4854,7 @@
         <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>76</v>
@@ -4881,7 +4881,7 @@
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4900,16 +4900,16 @@
         <v>76</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4971,7 +4971,7 @@
         <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>259</v>
@@ -5005,13 +5005,13 @@
         <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>265</v>
@@ -5020,10 +5020,10 @@
         <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>76</v>
@@ -5084,10 +5084,10 @@
         <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>76</v>
@@ -5112,16 +5112,16 @@
         <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>269</v>
@@ -5189,13 +5189,13 @@
         <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>76</v>
@@ -5223,16 +5223,16 @@
         <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I32" t="s" s="2">
         <v>84</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>182</v>
@@ -5300,13 +5300,13 @@
         <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>76</v>
@@ -5331,7 +5331,7 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>78</v>
@@ -5343,7 +5343,7 @@
         <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>252</v>
@@ -5408,7 +5408,7 @@
         <v>278</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5420,7 +5420,7 @@
         <v>282</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>76</v>
@@ -5445,7 +5445,7 @@
         <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>76</v>
@@ -5457,7 +5457,7 @@
         <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>256</v>
@@ -5520,7 +5520,7 @@
         <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>76</v>
@@ -5547,7 +5547,7 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5566,16 +5566,16 @@
         <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L35" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5637,7 +5637,7 @@
         <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>259</v>
@@ -5671,13 +5671,13 @@
         <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>265</v>
@@ -5686,10 +5686,10 @@
         <v>266</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>76</v>
@@ -5750,10 +5750,10 @@
         <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>76</v>
@@ -5778,19 +5778,19 @@
         <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>287</v>
@@ -5855,16 +5855,16 @@
         <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>290</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5889,19 +5889,19 @@
         <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>292</v>
@@ -5966,16 +5966,16 @@
         <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>76</v>
@@ -6083,10 +6083,10 @@
         <v>299</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>76</v>
@@ -6111,7 +6111,7 @@
         <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>76</v>
@@ -6123,7 +6123,7 @@
         <v>76</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>256</v>
@@ -6186,7 +6186,7 @@
         <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>76</v>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6232,16 +6232,16 @@
         <v>76</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6303,7 +6303,7 @@
         <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>259</v>
@@ -6337,13 +6337,13 @@
         <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K42" t="s" s="2">
         <v>265</v>
@@ -6352,10 +6352,10 @@
         <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>76</v>
@@ -6416,10 +6416,10 @@
         <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>76</v>
@@ -6441,10 +6441,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>76</v>
@@ -6456,7 +6456,7 @@
         <v>76</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>304</v>
@@ -6518,19 +6518,19 @@
         <v>303</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>76</v>
@@ -6555,7 +6555,7 @@
         <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>76</v>
@@ -6567,7 +6567,7 @@
         <v>76</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>308</v>
@@ -6632,16 +6632,16 @@
         <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6749,7 +6749,7 @@
         <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>76</v>
@@ -6777,7 +6777,7 @@
         <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>76</v>
@@ -6789,7 +6789,7 @@
         <v>76</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K46" t="s" s="2">
         <v>256</v>
@@ -6852,7 +6852,7 @@
         <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>76</v>
@@ -6879,7 +6879,7 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6898,16 +6898,16 @@
         <v>76</v>
       </c>
       <c r="J47" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L47" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6969,7 +6969,7 @@
         <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>259</v>
@@ -7003,13 +7003,13 @@
         <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>265</v>
@@ -7018,10 +7018,10 @@
         <v>266</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>76</v>
@@ -7082,10 +7082,10 @@
         <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>76</v>
@@ -7110,7 +7110,7 @@
         <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>76</v>
@@ -7122,7 +7122,7 @@
         <v>76</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>319</v>
@@ -7157,13 +7157,13 @@
         <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="X49" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="X49" t="s" s="2">
+      <c r="Y49" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>110</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>76</v>
@@ -7187,13 +7187,13 @@
         <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>76</v>
@@ -7221,7 +7221,7 @@
         <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>76</v>
@@ -7298,13 +7298,13 @@
         <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>76</v>
@@ -7329,10 +7329,10 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>76</v>
@@ -7344,7 +7344,7 @@
         <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>330</v>
@@ -7404,16 +7404,16 @@
         <v>329</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>76</v>
@@ -7450,7 +7450,7 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>252</v>
@@ -7524,10 +7524,10 @@
         <v>299</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>76</v>
@@ -7552,7 +7552,7 @@
         <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>76</v>
@@ -7564,7 +7564,7 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K53" t="s" s="2">
         <v>256</v>
@@ -7627,7 +7627,7 @@
         <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>76</v>
@@ -7654,7 +7654,7 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
@@ -7673,16 +7673,16 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K54" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L54" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7744,7 +7744,7 @@
         <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>259</v>
@@ -7778,13 +7778,13 @@
         <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K55" t="s" s="2">
         <v>265</v>
@@ -7793,10 +7793,10 @@
         <v>266</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>76</v>
@@ -7857,10 +7857,10 @@
         <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
@@ -7882,22 +7882,22 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I56" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F56" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I56" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J56" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>340</v>
@@ -7957,19 +7957,19 @@
         <v>339</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>76</v>
@@ -7991,22 +7991,22 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F57" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
         <v>343</v>
@@ -8068,19 +8068,19 @@
         <v>342</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
@@ -8102,22 +8102,22 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F58" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K58" t="s" s="2">
         <v>349</v>
@@ -8179,19 +8179,19 @@
         <v>348</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>76</v>
@@ -8225,7 +8225,7 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>353</v>
@@ -8299,10 +8299,10 @@
         <v>357</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>76</v>
@@ -8410,10 +8410,10 @@
         <v>362</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>76</v>
@@ -8438,7 +8438,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>76</v>
@@ -8515,13 +8515,13 @@
         <v>77</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>76</v>
@@ -8549,7 +8549,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>76</v>
@@ -8561,7 +8561,7 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K62" t="s" s="2">
         <v>256</v>
@@ -8624,7 +8624,7 @@
         <v>77</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>76</v>
@@ -8651,7 +8651,7 @@
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8670,16 +8670,16 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K63" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8741,7 +8741,7 @@
         <v>76</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>259</v>
@@ -8775,13 +8775,13 @@
         <v>76</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>265</v>
@@ -8790,10 +8790,10 @@
         <v>266</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>76</v>
@@ -8854,10 +8854,10 @@
         <v>76</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>76</v>
@@ -8882,7 +8882,7 @@
         <v>77</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>76</v>
@@ -8894,7 +8894,7 @@
         <v>76</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K65" t="s" s="2">
         <v>371</v>
@@ -8959,13 +8959,13 @@
         <v>77</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>76</v>
@@ -8990,10 +8990,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>76</v>
@@ -9067,16 +9067,16 @@
         <v>374</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>76</v>
@@ -9104,7 +9104,7 @@
         <v>77</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>76</v>
@@ -9181,13 +9181,13 @@
         <v>77</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>76</v>
@@ -9215,7 +9215,7 @@
         <v>77</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>76</v>
@@ -9294,13 +9294,13 @@
         <v>77</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>76</v>
@@ -9411,7 +9411,7 @@
         <v>76</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>76</v>
@@ -9439,7 +9439,7 @@
         <v>77</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>76</v>
@@ -9451,7 +9451,7 @@
         <v>76</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K70" t="s" s="2">
         <v>256</v>
@@ -9514,7 +9514,7 @@
         <v>77</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>76</v>
@@ -9541,7 +9541,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9560,16 +9560,16 @@
         <v>76</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K71" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9631,7 +9631,7 @@
         <v>76</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ71" t="s" s="2">
         <v>259</v>
@@ -9665,13 +9665,13 @@
         <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
         <v>265</v>
@@ -9680,10 +9680,10 @@
         <v>266</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>76</v>
@@ -9744,10 +9744,10 @@
         <v>76</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>76</v>
@@ -9769,10 +9769,10 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>76</v>
@@ -9784,7 +9784,7 @@
         <v>76</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K73" t="s" s="2">
         <v>396</v>
@@ -9846,16 +9846,16 @@
         <v>395</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>76</v>
@@ -9883,7 +9883,7 @@
         <v>77</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>76</v>
@@ -9958,13 +9958,13 @@
         <v>77</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>76</v>
@@ -10101,7 +10101,7 @@
         <v>77</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>76</v>
@@ -10113,7 +10113,7 @@
         <v>76</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>256</v>
@@ -10176,7 +10176,7 @@
         <v>77</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>76</v>
@@ -10203,7 +10203,7 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10222,16 +10222,16 @@
         <v>76</v>
       </c>
       <c r="J77" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="K77" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>261</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
@@ -10293,7 +10293,7 @@
         <v>76</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>259</v>
@@ -10327,13 +10327,13 @@
         <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K78" t="s" s="2">
         <v>265</v>
@@ -10342,10 +10342,10 @@
         <v>266</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>76</v>
@@ -10406,10 +10406,10 @@
         <v>76</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>76</v>
@@ -10434,7 +10434,7 @@
         <v>77</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>76</v>
@@ -10446,7 +10446,7 @@
         <v>76</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K79" t="s" s="2">
         <v>411</v>
@@ -10509,13 +10509,13 @@
         <v>77</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>76</v>
@@ -10543,7 +10543,7 @@
         <v>77</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>76</v>
@@ -10622,13 +10622,13 @@
         <v>77</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>76</v>
@@ -10656,7 +10656,7 @@
         <v>77</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>76</v>
@@ -10733,13 +10733,13 @@
         <v>77</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ81" t="s" s="2">
         <v>76</v>
@@ -10767,7 +10767,7 @@
         <v>77</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>76</v>
@@ -10779,7 +10779,7 @@
         <v>76</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K82" t="s" s="2">
         <v>423</v>
@@ -10844,13 +10844,13 @@
         <v>77</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ82" t="s" s="2">
         <v>76</v>
@@ -10878,7 +10878,7 @@
         <v>77</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>76</v>
@@ -10890,7 +10890,7 @@
         <v>76</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>427</v>
@@ -10953,13 +10953,13 @@
         <v>77</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>76</v>
@@ -10987,7 +10987,7 @@
         <v>77</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>76</v>
@@ -10999,7 +10999,7 @@
         <v>76</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>431</v>
@@ -11062,13 +11062,13 @@
         <v>77</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>429</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>76</v>
@@ -11179,7 +11179,7 @@
         <v>76</v>
       </c>
       <c r="AI85" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ85" t="s" s="2">
         <v>76</v>
@@ -11290,7 +11290,7 @@
         <v>76</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AJ86" t="s" s="2">
         <v>76</v>
